--- a/arsel/data_ar/ImportForm/CheckCellValue/C108_v1_C6181.xlsx
+++ b/arsel/data_ar/ImportForm/CheckCellValue/C108_v1_C6181.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>CellName</t>
   </si>
@@ -37,16 +37,7 @@
     <t>C10800C020</t>
   </si>
   <si>
-    <t>0.34545423</t>
-  </si>
-  <si>
-    <t>0.24693112</t>
-  </si>
-  <si>
-    <t>0.24840801</t>
-  </si>
-  <si>
-    <t>0.2648849</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -96,11 +87,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,34 +406,34 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -449,9 +447,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -463,9 +463,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -477,9 +479,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -491,9 +495,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
